--- a/biology/Botanique/Nartheciaceae/Nartheciaceae.xlsx
+++ b/biology/Botanique/Nartheciaceae/Nartheciaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Narthéciacées (Nartheciaceae) regroupe des plantes monocotylédones.
 En France on peut citer Narthecium ossifragum que l'on rencontre dans les tourbières de l'ouest de la France, ainsi que l'Ossifrage de Reverchon (Narthecium reverchonii), endémique de Corse.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Narthecium boîte à parfum romaine, qui elle-même dérive du grec νάρθηξ (narthex), un fenouil géant aux feuilles parfumées, nom utilisé par Theophraste pour désigner l'espèce Ferula communis (Apiaceae). Le mot narthex est maintenant utilisé pour désigner le portique interne aménagé à l'entrée des églises byzantines, paléochrétiennes ou médiévales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Narthecium boîte à parfum romaine, qui elle-même dérive du grec νάρθηξ (narthex), un fenouil géant aux feuilles parfumées, nom utilisé par Theophraste pour désigner l'espèce Ferula communis (Apiaceae). Le mot narthex est maintenant utilisé pour désigner le portique interne aménagé à l'entrée des églises byzantines, paléochrétiennes ou médiévales.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées, à inflorescences en racème, à petites fleurs avec des tépales en partie libres qui persistent après la floraison.
 </t>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille n'existe pas et ces plantes étaient incluses dans les Liliacées.
-Cette famille a été restaurée par la classification phylogénétique APG II (2003)[3] et comprend 41 espèces réparties en 5 genres : Aletris, Lophiola, Metanarthecium (en), Narthecium et Nietneria (en).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas et ces plantes étaient incluses dans les Liliacées.
+Cette famille a été restaurée par la classification phylogénétique APG II (2003) et comprend 41 espèces réparties en 5 genres : Aletris, Lophiola, Metanarthecium (en), Narthecium et Nietneria (en).
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4], Angiosperm Phylogeny Website                        (20 mai 2010)[5] et NCBI  (15 avr. 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010), Angiosperm Phylogeny Website                        (20 mai 2010) et NCBI  (15 avr. 2010) :
 genre Aletris L. (1753)
 genre Lophiola Ker Gawl. (1813)
 genre Metanarthecium Maxim. (1867)
@@ -641,9 +661,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 genre Aletris L. (1753)
 Aletris alpestris Diels (1905)
 Aletris aurea Walter (1788)
@@ -684,7 +706,7 @@
 genre Nietneria Klotzsch ex Benth. (1883)
 Nietneria corymbosa Klotzsch &amp; M.R.Schomb. ex B.D.Jacks. (1894)
 Nietneria paniculata Steyerm., Fieldiana (1951)
-Selon NCBI  (15 avr. 2010)[6] :
+Selon NCBI  (15 avr. 2010) :
 genre Aletris
 Aletris farinosa
 Aletris foliosa
